--- a/src/assets/templateFiles/powerReceipt template.xlsx
+++ b/src/assets/templateFiles/powerReceipt template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BillManagement\UI\src\assets\templateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive D\Moshtarin\Saadati_AsiaWat\SorceCode\Front\src\assets\templateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA509A2-55F6-41E4-BA29-78946A7364A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA37DB-655C-4AC5-8ECA-B5301512A993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CF16CE9-ACF0-497D-8AF5-2C69F1F9AE9C}"/>
+    <workbookView xWindow="3900" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{8CF16CE9-ACF0-497D-8AF5-2C69F1F9AE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>شناسه قبض</t>
   </si>
@@ -85,51 +85,6 @@
   </si>
   <si>
     <t>ضریب بدی مصرف</t>
-  </si>
-  <si>
-    <t>1399/11/23</t>
-  </si>
-  <si>
-    <t>1400/01/14</t>
-  </si>
-  <si>
-    <t>1399/09/22</t>
-  </si>
-  <si>
-    <t>1399/07/23</t>
-  </si>
-  <si>
-    <t>1399/05/25</t>
-  </si>
-  <si>
-    <t>1399/03/20</t>
-  </si>
-  <si>
-    <t>1399/01/30</t>
-  </si>
-  <si>
-    <t>1398/12/05</t>
-  </si>
-  <si>
-    <t>200000 </t>
-  </si>
-  <si>
-    <t>242000 </t>
-  </si>
-  <si>
-    <t>233000 </t>
-  </si>
-  <si>
-    <t>215000 </t>
-  </si>
-  <si>
-    <t>1209000 </t>
-  </si>
-  <si>
-    <t>250000 </t>
-  </si>
-  <si>
-    <t>213000 </t>
   </si>
 </sst>
 </file>
@@ -547,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA019D6-41C4-4363-BA14-2F3C2F78FACD}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,440 +577,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1140038005120</v>
-      </c>
-      <c r="B2">
-        <v>190</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>253</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>200170</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1140038005120</v>
-      </c>
-      <c r="B3">
-        <v>190</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>305</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>241279</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1140038005120</v>
-      </c>
-      <c r="B4">
-        <v>190</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>295</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>233368</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1140038005120</v>
-      </c>
-      <c r="B5">
-        <v>190</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>271</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>214755</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1140038005120</v>
-      </c>
-      <c r="B6">
-        <v>190</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>736</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>1209540</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1140038005120</v>
-      </c>
-      <c r="B7">
-        <v>190</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>317</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>249466</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1140038005120</v>
-      </c>
-      <c r="B8">
-        <v>190</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>287</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>213421</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
